--- a/dataset_kor.xlsx
+++ b/dataset_kor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\dashboard\Chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D564198-1053-4454-9BCB-C812B63C585C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C5C7D-E36E-4F0D-8692-1680A3A8B5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="19635" tabRatio="744" xr2:uid="{92111CBA-0C4C-4623-88D1-D8E43ECC6DA7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" xr2:uid="{92111CBA-0C4C-4623-88D1-D8E43ECC6DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="계좌정보" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="374">
   <si>
     <t>고객번호</t>
   </si>
@@ -164,82 +175,10 @@
     <t>20210630</t>
   </si>
   <si>
-    <t>20211229</t>
-  </si>
-  <si>
-    <t>20001212</t>
-  </si>
-  <si>
-    <t>20130610</t>
-  </si>
-  <si>
     <t>20220316</t>
   </si>
   <si>
-    <t>20210323</t>
-  </si>
-  <si>
-    <t>20060516</t>
-  </si>
-  <si>
-    <t>20080801</t>
-  </si>
-  <si>
-    <t>20130405</t>
-  </si>
-  <si>
-    <t>20120731</t>
-  </si>
-  <si>
-    <t>20190624</t>
-  </si>
-  <si>
-    <t>20100408</t>
-  </si>
-  <si>
-    <t>20200830</t>
-  </si>
-  <si>
-    <t>19991211</t>
-  </si>
-  <si>
-    <t>20070507</t>
-  </si>
-  <si>
-    <t>20140714</t>
-  </si>
-  <si>
-    <t>20151215</t>
-  </si>
-  <si>
-    <t>20210319</t>
-  </si>
-  <si>
     <t>20190111</t>
-  </si>
-  <si>
-    <t>20240712</t>
-  </si>
-  <si>
-    <t>20240715</t>
-  </si>
-  <si>
-    <t>20210406</t>
-  </si>
-  <si>
-    <t>20210819</t>
-  </si>
-  <si>
-    <t>20241018</t>
-  </si>
-  <si>
-    <t>20240927</t>
-  </si>
-  <si>
-    <t>20220510</t>
-  </si>
-  <si>
-    <t>20220531</t>
   </si>
   <si>
     <t>20220829</t>
@@ -1125,9 +1064,6 @@
     <t>생년월일</t>
   </si>
   <si>
-    <t>동일나이구분코드</t>
-  </si>
-  <si>
     <t>총자산금액</t>
   </si>
   <si>
@@ -1137,46 +1073,22 @@
     <t>박****</t>
   </si>
   <si>
-    <t>197*****</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>공격투자형</t>
   </si>
   <si>
     <t>윤****</t>
   </si>
   <si>
-    <t>198*****</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>적극투자형</t>
   </si>
   <si>
     <t>권****</t>
   </si>
   <si>
-    <t>195*****</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>위험중립형</t>
   </si>
   <si>
     <t>미지정</t>
-  </si>
-  <si>
-    <t>199*****</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>김****</t>
@@ -1226,13 +1138,55 @@
   <si>
     <t>연금개시신청여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19730501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19830208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19581118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19700731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19940930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19900822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당해년도납입금액</t>
+  </si>
+  <si>
+    <t>그외과세제외금액</t>
+  </si>
+  <si>
+    <t>퇴직소득금액</t>
+  </si>
+  <si>
+    <t>사용자부담금</t>
+  </si>
+  <si>
+    <t>가입자부담금</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,6 +1216,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1296,12 +1258,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,8 +1282,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1335,9 +1319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1375,7 +1359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1481,7 +1465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1623,7 +1607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,802 +1615,1590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF738F2-B143-4E5C-ACDD-B51B6834AA00}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>20210630</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="8">
         <v>241152993</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>210000000</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>31152993</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20211229</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20001212</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8">
         <v>3417</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20130610</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8">
+        <v>96895147</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20220316</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8">
+        <v>9970473</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>10050000</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>10050000</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>-79527</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20210323</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8">
+        <v>66046</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20060516</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8">
+        <v>148174</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20080801</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8">
+        <v>10680376</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20130405</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8">
+        <v>25905149</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>24000000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="P10" s="9">
+        <v>24000000</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1905149</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20120731</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8">
+        <v>31382540</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>28500000</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>2882540</v>
+      </c>
+      <c r="R11" s="9">
+        <v>940500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="7">
+        <v>20190624</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8">
+        <v>2377037</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20100408</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8">
+        <v>162619</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20200830</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8">
+        <v>11511064</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7">
+        <v>19991211</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8">
+        <v>103786668</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>53786668</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7">
+        <v>20070507</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8">
+        <v>92017334</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20140714</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8">
+        <v>68981597</v>
+      </c>
+      <c r="K17" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="L17" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>57500000</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>61500000</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>7481597</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7">
+        <v>20151215</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8">
+        <v>375960181</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>305850000</v>
+      </c>
+      <c r="N18" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>66110181</v>
+      </c>
+      <c r="R18" s="9">
+        <v>10093050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7">
+        <v>20210319</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8">
+        <v>107463982</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7">
+        <v>20190111</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="8">
+        <v>54298796</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>4298796</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7">
+        <v>20240712</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8">
+        <v>5900852</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>5400000</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>500852</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7">
+        <v>20240715</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8">
+        <v>104126288</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7">
+        <v>20210406</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8">
+        <v>3682</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="7">
+        <v>20210406</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8">
+        <v>119056099</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7">
+        <v>20210819</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8">
+        <v>19755323</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2400000</v>
+      </c>
+      <c r="O25" s="9">
+        <v>16050323</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2400000</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1305000</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="7">
+        <v>20241018</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8">
+        <v>6513361</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>6333269</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>180092</v>
+      </c>
+      <c r="R26" s="9">
+        <v>71990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="7">
+        <v>20240927</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8">
+        <v>47222453</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="7">
+        <v>20240927</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8">
+        <v>3647005</v>
+      </c>
+      <c r="K28" s="8">
+        <v>3000000</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>3300000</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>3300000</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>347005</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="7">
+        <v>20220510</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8">
+        <v>1110021</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7">
+        <v>20220510</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8">
+        <v>8651927</v>
+      </c>
+      <c r="K30" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>8350000</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8350000</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>301927</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="7">
+        <v>20220531</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8">
+        <v>15163005</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2500000</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>11500000</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>11500000</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>3663005</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3">
-        <v>96895147</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9970473</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3">
-        <v>66046</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="3">
-        <v>148174</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10680376</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="3">
-        <v>25905149</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="3">
-        <v>31382540</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2377037</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="3">
-        <v>162619</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="3">
-        <v>11511064</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="3">
-        <v>103786668</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3">
-        <v>92017334</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="3">
-        <v>68981597</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3">
-        <v>75960181</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3">
-        <v>107463982</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="3">
-        <v>54298796</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5900852</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="3">
-        <v>104126288</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3682</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="3">
-        <v>119056099</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="3">
-        <v>19755323</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="3">
-        <v>6513361</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="3">
-        <v>47222453</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="3">
-        <v>3647005</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1110021</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="3">
-        <v>8651927</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="3">
-        <v>15163005</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="8">
         <v>40138086</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2437,159 +3209,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D06C1ED-7EE8-460D-9430-78F957815D88}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E2" s="3">
+        <v>363</v>
+      </c>
+      <c r="D2" s="10">
         <v>106879292</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="3">
+        <v>364</v>
+      </c>
+      <c r="D3" s="10">
         <v>63631654</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E4" s="3">
+        <v>365</v>
+      </c>
+      <c r="D4" s="10">
         <v>456430738</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="10">
         <v>260653824</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="3">
+        <v>367</v>
+      </c>
+      <c r="D6" s="10">
         <v>62274461</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="3">
+        <v>368</v>
+      </c>
+      <c r="D7" s="10">
         <v>67298320</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>368</v>
+      <c r="E7" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2607,18 +3358,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,22 +3386,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2661,13 +3412,13 @@
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="G2" s="3">
         <v>50000</v>
@@ -2682,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2693,13 +3444,13 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G3" s="3">
         <v>3000000</v>
@@ -2714,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2725,13 +3476,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3">
         <v>7000000</v>
@@ -2746,9 +3497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -2757,13 +3508,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="G5" s="3">
         <v>1000000</v>
@@ -2778,9 +3529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -2789,13 +3540,13 @@
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3">
         <v>3000000</v>
@@ -2810,9 +3561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -2821,13 +3572,13 @@
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3">
         <v>3000000</v>
@@ -2842,9 +3593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -2853,13 +3604,13 @@
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="G8" s="3">
         <v>1250000</v>
@@ -2874,9 +3625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -2885,13 +3636,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G9" s="3">
         <v>4000000</v>
@@ -2906,9 +3657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -2917,13 +3668,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G10" s="3">
         <v>4020000</v>
@@ -2938,9 +3689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -2949,13 +3700,13 @@
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G11" s="3">
         <v>4020000</v>
@@ -2970,9 +3721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -2981,13 +3732,13 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G12" s="3">
         <v>3000000</v>
@@ -3002,9 +3753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -3013,13 +3764,13 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G13" s="3">
         <v>3000000</v>
@@ -3034,9 +3785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -3045,13 +3796,13 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="G14" s="3">
         <v>2000000</v>
@@ -3066,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -3077,13 +3828,13 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="G15" s="3">
         <v>3000000</v>
@@ -3098,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3109,13 +3860,13 @@
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="G16" s="3">
         <v>3000000</v>
@@ -3130,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -3141,13 +3892,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="G17" s="3">
         <v>4000000</v>
@@ -3162,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -3173,13 +3924,13 @@
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G18" s="3">
         <v>4000000</v>
@@ -3194,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -3205,13 +3956,13 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G19" s="3">
         <v>7000000</v>
@@ -3226,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -3237,13 +3988,13 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G20" s="3">
         <v>9000000</v>
@@ -3258,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3269,13 +4020,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3">
         <v>3000000</v>
@@ -3290,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3301,13 +4052,13 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G22" s="3">
         <v>6500000</v>
@@ -3322,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3333,13 +4084,13 @@
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G23" s="3">
         <v>2000000</v>
@@ -3354,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3365,13 +4116,13 @@
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G24" s="3">
         <v>3000000</v>
@@ -3401,30 +4152,30 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,87 +4189,87 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
@@ -3578,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3589,19 +4340,19 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3">
         <v>572288847</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I3" s="3">
         <v>13</v>
@@ -3610,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -3658,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3669,19 +4420,19 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G4" s="3">
         <v>572288847</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I4" s="3">
         <v>13</v>
@@ -3690,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -3738,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3749,19 +4500,19 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3">
         <v>572288847</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I5" s="3">
         <v>13</v>
@@ -3770,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -3818,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3829,19 +4580,19 @@
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3">
         <v>572288847</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I6" s="3">
         <v>13</v>
@@ -3850,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -3898,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3909,19 +4660,19 @@
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3">
         <v>572288847</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I7" s="3">
         <v>13</v>
@@ -3930,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -3978,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3989,19 +4740,19 @@
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3">
         <v>572288847</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I8" s="3">
         <v>13</v>
@@ -4010,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -4058,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -4069,19 +4820,19 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3">
         <v>572288847</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I9" s="3">
         <v>13</v>
@@ -4090,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -4138,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4149,19 +4900,19 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G10" s="3">
         <v>572288847</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I10" s="3">
         <v>13</v>
@@ -4170,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -4218,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4229,19 +4980,19 @@
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3">
         <v>572288847</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I11" s="3">
         <v>13</v>
@@ -4250,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -4298,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -4309,19 +5060,19 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G12" s="3">
         <v>572288847</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I12" s="3">
         <v>13</v>
@@ -4330,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -4378,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4389,19 +5140,19 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3">
         <v>572288847</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I13" s="3">
         <v>13</v>
@@ -4410,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -4458,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4469,19 +5220,19 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3">
         <v>572288847</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I14" s="3">
         <v>13</v>
@@ -4490,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -4538,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -4549,19 +5300,19 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3">
         <v>56165526</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I15" s="3">
         <v>14</v>
@@ -4570,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -4618,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -4629,19 +5380,19 @@
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3">
         <v>56165526</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I16" s="3">
         <v>14</v>
@@ -4650,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -4698,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4709,19 +5460,19 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G17" s="3">
         <v>56165526</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I17" s="3">
         <v>14</v>
@@ -4730,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -4778,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -4789,19 +5540,19 @@
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G18" s="3">
         <v>56165526</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I18" s="3">
         <v>14</v>
@@ -4810,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -4858,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -4869,19 +5620,19 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3">
         <v>56165526</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I19" s="3">
         <v>14</v>
@@ -4890,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -4938,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -4949,19 +5700,19 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3">
         <v>56165526</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I20" s="3">
         <v>14</v>
@@ -4970,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -5018,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5029,19 +5780,19 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3">
         <v>56165526</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I21" s="3">
         <v>14</v>
@@ -5050,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -5098,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -5109,19 +5860,19 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3">
         <v>56165526</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I22" s="3">
         <v>14</v>
@@ -5130,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -5178,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -5189,19 +5940,19 @@
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3">
         <v>56165526</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I23" s="3">
         <v>14</v>
@@ -5210,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -5258,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -5269,19 +6020,19 @@
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3">
         <v>56165526</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I24" s="3">
         <v>14</v>
@@ -5290,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -5338,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -5349,19 +6100,19 @@
         <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G25" s="3">
         <v>56165526</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I25" s="3">
         <v>14</v>
@@ -5370,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -5418,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -5429,19 +6180,19 @@
         <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G26" s="3">
         <v>56165526</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I26" s="3">
         <v>14</v>
@@ -5450,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -5498,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -5509,19 +6260,19 @@
         <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G27" s="3">
         <v>56453813</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I27" s="3">
         <v>15</v>
@@ -5530,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -5578,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -5589,19 +6340,19 @@
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G28" s="3">
         <v>56453813</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I28" s="3">
         <v>15</v>
@@ -5610,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -5658,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -5669,19 +6420,19 @@
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G29" s="3">
         <v>56453813</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I29" s="3">
         <v>15</v>
@@ -5690,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -5738,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -5749,19 +6500,19 @@
         <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G30" s="3">
         <v>56453813</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I30" s="3">
         <v>15</v>
@@ -5770,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -5818,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -5829,19 +6580,19 @@
         <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G31" s="3">
         <v>56453813</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I31" s="3">
         <v>15</v>
@@ -5850,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -5898,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -5909,19 +6660,19 @@
         <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G32" s="3">
         <v>56453813</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I32" s="3">
         <v>15</v>
@@ -5930,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -5978,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -5989,19 +6740,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G33" s="3">
         <v>56453813</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I33" s="3">
         <v>15</v>
@@ -6010,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -6058,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -6069,19 +6820,19 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G34" s="3">
         <v>56453813</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I34" s="3">
         <v>15</v>
@@ -6090,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -6138,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -6149,19 +6900,19 @@
         <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G35" s="3">
         <v>56453813</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I35" s="3">
         <v>15</v>
@@ -6170,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -6218,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -6229,19 +6980,19 @@
         <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G36" s="3">
         <v>56453813</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I36" s="3">
         <v>15</v>
@@ -6250,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -6298,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -6309,19 +7060,19 @@
         <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3">
         <v>56453813</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I37" s="3">
         <v>15</v>
@@ -6330,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -6378,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -6389,19 +7140,19 @@
         <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G38" s="3">
         <v>56453813</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I38" s="3">
         <v>15</v>
@@ -6410,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -6458,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -6469,19 +7220,19 @@
         <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G39" s="3">
         <v>56912717</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I39" s="3">
         <v>16</v>
@@ -6490,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -6538,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -6549,19 +7300,19 @@
         <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G40" s="3">
         <v>56912717</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I40" s="3">
         <v>16</v>
@@ -6570,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -6618,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -6629,19 +7380,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G41" s="3">
         <v>56912717</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I41" s="3">
         <v>16</v>
@@ -6650,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -6698,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -6709,19 +7460,19 @@
         <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G42" s="3">
         <v>56912717</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I42" s="3">
         <v>16</v>
@@ -6730,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -6778,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -6789,19 +7540,19 @@
         <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G43" s="3">
         <v>56912717</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I43" s="3">
         <v>16</v>
@@ -6810,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -6858,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -6869,19 +7620,19 @@
         <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G44" s="3">
         <v>56912717</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I44" s="3">
         <v>16</v>
@@ -6890,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -6938,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -6949,19 +7700,19 @@
         <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G45" s="3">
         <v>56912717</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I45" s="3">
         <v>16</v>
@@ -6970,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -7018,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -7029,19 +7780,19 @@
         <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G46" s="3">
         <v>56912717</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I46" s="3">
         <v>16</v>
@@ -7050,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7098,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -7109,19 +7860,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G47" s="3">
         <v>56912717</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I47" s="3">
         <v>16</v>
@@ -7130,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -7178,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -7189,19 +7940,19 @@
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3">
         <v>56912717</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I48" s="3">
         <v>16</v>
@@ -7210,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -7258,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -7269,19 +8020,19 @@
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G49" s="3">
         <v>56912717</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I49" s="3">
         <v>16</v>
@@ -7290,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -7338,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -7349,19 +8100,19 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G50" s="3">
         <v>56912717</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I50" s="3">
         <v>16</v>
@@ -7370,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -7418,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -7429,19 +8180,19 @@
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G51" s="3">
         <v>57943355</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I51" s="3">
         <v>17</v>
@@ -7450,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>
@@ -7498,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -7509,19 +8260,19 @@
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G52" s="3">
         <v>57943355</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I52" s="3">
         <v>17</v>
@@ -7530,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -7578,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -7589,19 +8340,19 @@
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G53" s="3">
         <v>57943355</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I53" s="3">
         <v>17</v>
@@ -7610,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
@@ -7658,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -7669,19 +8420,19 @@
         <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G54" s="3">
         <v>57943355</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I54" s="3">
         <v>17</v>
@@ -7690,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -7738,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -7749,19 +8500,19 @@
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G55" s="3">
         <v>57943355</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I55" s="3">
         <v>17</v>
@@ -7770,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -7818,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -7829,19 +8580,19 @@
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G56" s="3">
         <v>57943355</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I56" s="3">
         <v>17</v>
@@ -7850,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
@@ -7898,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -7909,19 +8660,19 @@
         <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G57" s="3">
         <v>57943355</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I57" s="3">
         <v>17</v>
@@ -7930,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -7978,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -7989,19 +8740,19 @@
         <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G58" s="3">
         <v>57943355</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I58" s="3">
         <v>17</v>
@@ -8010,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -8058,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -8069,19 +8820,19 @@
         <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G59" s="3">
         <v>57943355</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I59" s="3">
         <v>17</v>
@@ -8090,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -8138,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -8149,19 +8900,19 @@
         <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G60" s="3">
         <v>57943355</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I60" s="3">
         <v>17</v>
@@ -8170,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -8218,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -8229,19 +8980,19 @@
         <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G61" s="3">
         <v>57943355</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I61" s="3">
         <v>17</v>
@@ -8250,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -8298,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
@@ -8309,19 +9060,19 @@
         <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G62" s="3">
         <v>57943355</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I62" s="3">
         <v>17</v>
@@ -8330,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -8378,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -8389,19 +9140,19 @@
         <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G63" s="3">
         <v>68266398</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I63" s="3">
         <v>18</v>
@@ -8410,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="L63" s="3">
         <v>0</v>
@@ -8458,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -8469,19 +9220,19 @@
         <v>40</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G64" s="3">
         <v>68266398</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I64" s="3">
         <v>18</v>
@@ -8490,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
@@ -8538,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -8549,19 +9300,19 @@
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G65" s="3">
         <v>68266398</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I65" s="3">
         <v>18</v>
@@ -8570,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
@@ -8618,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -8629,19 +9380,19 @@
         <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G66" s="3">
         <v>68266398</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I66" s="3">
         <v>18</v>
@@ -8650,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -8698,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -8709,19 +9460,19 @@
         <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G67" s="3">
         <v>68266398</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I67" s="3">
         <v>18</v>
@@ -8730,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
@@ -8778,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -8789,19 +9540,19 @@
         <v>40</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G68" s="3">
         <v>68266398</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I68" s="3">
         <v>18</v>
@@ -8810,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
@@ -8858,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -8869,19 +9620,19 @@
         <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G69" s="3">
         <v>68266398</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I69" s="3">
         <v>18</v>
@@ -8890,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="L69" s="3">
         <v>0</v>
@@ -8938,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -8949,19 +9700,19 @@
         <v>40</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G70" s="3">
         <v>68266398</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I70" s="3">
         <v>18</v>
@@ -8970,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -9018,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -9029,19 +9780,19 @@
         <v>40</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G71" s="3">
         <v>68266398</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I71" s="3">
         <v>18</v>
@@ -9050,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
@@ -9098,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -9109,19 +9860,19 @@
         <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G72" s="3">
         <v>68266398</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I72" s="3">
         <v>18</v>
@@ -9130,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -9178,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -9189,19 +9940,19 @@
         <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G73" s="3">
         <v>68266398</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I73" s="3">
         <v>18</v>
@@ -9210,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="L73" s="3">
         <v>0</v>
@@ -9258,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
@@ -9269,19 +10020,19 @@
         <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G74" s="3">
         <v>68266398</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I74" s="3">
         <v>18</v>
@@ -9290,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
@@ -9338,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -9349,19 +10100,19 @@
         <v>40</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G75" s="3">
         <v>73222602</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I75" s="3">
         <v>19</v>
@@ -9370,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
@@ -9418,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -9429,19 +10180,19 @@
         <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G76" s="3">
         <v>73222602</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I76" s="3">
         <v>19</v>
@@ -9450,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -9498,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -9509,19 +10260,19 @@
         <v>40</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G77" s="3">
         <v>73222602</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I77" s="3">
         <v>19</v>
@@ -9530,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L77" s="3">
         <v>0</v>
@@ -9578,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
@@ -9589,19 +10340,19 @@
         <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G78" s="3">
         <v>73222602</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I78" s="3">
         <v>19</v>
@@ -9610,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
@@ -9658,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
@@ -9669,19 +10420,19 @@
         <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G79" s="3">
         <v>73222602</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I79" s="3">
         <v>19</v>
@@ -9690,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
@@ -9738,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -9749,19 +10500,19 @@
         <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G80" s="3">
         <v>73222602</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I80" s="3">
         <v>19</v>
@@ -9770,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="L80" s="3">
         <v>0</v>
@@ -9818,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -9829,19 +10580,19 @@
         <v>40</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G81" s="3">
         <v>73222602</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I81" s="3">
         <v>19</v>
@@ -9850,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -9898,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -9909,19 +10660,19 @@
         <v>40</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G82" s="3">
         <v>73222602</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I82" s="3">
         <v>19</v>
@@ -9930,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
@@ -9978,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
@@ -9989,19 +10740,19 @@
         <v>40</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G83" s="3">
         <v>73222602</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I83" s="3">
         <v>19</v>
@@ -10010,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -10073,20 +10824,20 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10097,36 +10848,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -10135,16 +10886,16 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -10162,9 +10913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -10173,16 +10924,16 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -10200,9 +10951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -10211,16 +10962,16 @@
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -10238,9 +10989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -10249,16 +11000,16 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -10276,9 +11027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -10287,16 +11038,16 @@
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -10314,9 +11065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -10325,16 +11076,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -10352,9 +11103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -10363,16 +11114,16 @@
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -10390,9 +11141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -10401,16 +11152,16 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="H9" s="3">
         <v>7</v>
@@ -10428,9 +11179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -10439,13 +11190,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3">
@@ -10464,9 +11215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -10475,13 +11226,13 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3">
@@ -10515,16 +11266,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10535,33 +11286,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -10570,7 +11321,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3">
@@ -10578,7 +11329,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -10588,7 +11339,7 @@
         <v>25905149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -10599,7 +11350,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -10607,7 +11358,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -10617,7 +11368,7 @@
         <v>68981597</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -10628,7 +11379,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3">
@@ -10646,7 +11397,7 @@
         <v>5900852</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -10657,7 +11408,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
@@ -10675,7 +11426,7 @@
         <v>3647005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -10686,7 +11437,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
@@ -10719,20 +11470,20 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10743,46 +11494,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -10793,10 +11544,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -10808,16 +11559,16 @@
         <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="K2" s="3">
         <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -10843,23 +11594,23 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10876,43 +11627,43 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -10923,29 +11674,29 @@
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -10957,54 +11708,54 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="M3" s="3">
         <v>10314260</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="O3" s="3">
         <v>147837730</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -11015,29 +11766,29 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -11049,46 +11800,46 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="M5" s="3">
         <v>10790111</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O5" s="3">
         <v>237382460</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -11107,22 +11858,22 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11136,60 +11887,60 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3">
         <v>199066971</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -11202,7 +11953,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -11213,22 +11964,22 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3">
         <v>557720849</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -11240,10 +11991,10 @@
         <v>557720849</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -11254,22 +12005,22 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3">
         <v>557720849</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -11282,7 +12033,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -11293,22 +12044,22 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3">
         <v>6333269</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
